--- a/data/trans_orig/P52_1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P52_1-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>46718</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38157</v>
+        <v>37334</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53700</v>
+        <v>54318</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6666154496678334</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5444567004708553</v>
+        <v>0.5327067398463821</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7662315502105729</v>
+        <v>0.7750516627082316</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -763,19 +763,19 @@
         <v>25100</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19179</v>
+        <v>19138</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29311</v>
+        <v>29319</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7569656827048549</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5783813609942775</v>
+        <v>0.5771533019331707</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8839631804829048</v>
+        <v>0.8842047190222294</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>67</v>
@@ -784,19 +784,19 @@
         <v>71819</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>62426</v>
+        <v>61926</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>81023</v>
+        <v>80745</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6956340365965836</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6046509366879532</v>
+        <v>0.599807559646876</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.784783406691807</v>
+        <v>0.7820908140354359</v>
       </c>
     </row>
     <row r="5">
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5520</v>
+        <v>5513</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02530588080249332</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07876780550525488</v>
+        <v>0.0786583921517945</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5091</v>
+        <v>4471</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03124225035776188</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1535205174184758</v>
+        <v>0.1348424768005586</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -855,19 +855,19 @@
         <v>2810</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7678</v>
+        <v>7623</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02721251734553534</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.008356381403481014</v>
+        <v>0.008434972052373523</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07436426777294528</v>
+        <v>0.07383321458872424</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>3540</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1004</v>
+        <v>1018</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9869</v>
+        <v>9932</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05051596149889866</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01432752186170784</v>
+        <v>0.01453115439545633</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1408150538116115</v>
+        <v>0.1417131810208587</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5872</v>
+        <v>6329</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03527976196515311</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1770832107685541</v>
+        <v>0.1908649949652354</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -926,19 +926,19 @@
         <v>4710</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1214</v>
+        <v>1192</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10612</v>
+        <v>11035</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04562241595095731</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0117597038038107</v>
+        <v>0.01154386708479795</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1027820562926161</v>
+        <v>0.106879951364801</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>18051</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11340</v>
+        <v>10937</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26931</v>
+        <v>26528</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2575627080307747</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1618110606878077</v>
+        <v>0.1560647243217892</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3842697623508726</v>
+        <v>0.3785276682185192</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -976,19 +976,19 @@
         <v>5853</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1952</v>
+        <v>2070</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10717</v>
+        <v>11531</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1765123049722301</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05886437916320842</v>
+        <v>0.06243245800028469</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3231925032186793</v>
+        <v>0.3477478891525644</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -997,19 +997,19 @@
         <v>23904</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14925</v>
+        <v>15433</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>32266</v>
+        <v>33663</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2315310301069237</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1445580154916267</v>
+        <v>0.1494815247235648</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3125202533613733</v>
+        <v>0.3260579719852744</v>
       </c>
     </row>
     <row r="8">
@@ -1101,19 +1101,19 @@
         <v>74525</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>63052</v>
+        <v>62386</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>85295</v>
+        <v>84728</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6153629486645203</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5206292536796843</v>
+        <v>0.5151237087836659</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7042927544761671</v>
+        <v>0.6996107007175998</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>23</v>
@@ -1122,19 +1122,19 @@
         <v>23190</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>16570</v>
+        <v>17054</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>28989</v>
+        <v>29009</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5886209163969739</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4205902057977081</v>
+        <v>0.4328552690263012</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7358016278008387</v>
+        <v>0.7363178601225344</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>97</v>
@@ -1143,19 +1143,19 @@
         <v>97716</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>84576</v>
+        <v>84174</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>110766</v>
+        <v>110724</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.60879881212647</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5269358884045077</v>
+        <v>0.5244297196594874</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6901058308999191</v>
+        <v>0.6898412570145402</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>8803</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3877</v>
+        <v>4793</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14767</v>
+        <v>15691</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0726900302178082</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03201043025593313</v>
+        <v>0.03957597285202104</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1219363759075382</v>
+        <v>0.1295650487184905</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6110</v>
+        <v>5150</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03145496321134852</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1550850300771376</v>
+        <v>0.1307270450437032</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -1214,19 +1214,19 @@
         <v>10043</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4979</v>
+        <v>4998</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17412</v>
+        <v>17180</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06256841315901279</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03101824769145009</v>
+        <v>0.03113980987255966</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1084816860554679</v>
+        <v>0.1070385794142601</v>
       </c>
     </row>
     <row r="11">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4897</v>
+        <v>4798</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.007963232156770327</v>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04043616824396409</v>
+        <v>0.03962041494642152</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5510</v>
+        <v>5005</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02532168421014733</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.13984699101063</v>
+        <v>0.1270439602108513</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7066</v>
+        <v>6670</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01222406200797972</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0440244561705706</v>
+        <v>0.04155623403398197</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>36815</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>26951</v>
+        <v>26647</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>48558</v>
+        <v>48115</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3039837889609011</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.222539974972079</v>
+        <v>0.2200301893581283</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4009489846726784</v>
+        <v>0.397289507454639</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -1335,19 +1335,19 @@
         <v>13971</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8180</v>
+        <v>8413</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20659</v>
+        <v>20070</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3546024361815303</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2076330168203834</v>
+        <v>0.2135456210647385</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5243622388946904</v>
+        <v>0.5094050123243271</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>45</v>
@@ -1356,19 +1356,19 @@
         <v>50785</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>39401</v>
+        <v>38733</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>63603</v>
+        <v>64785</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3164087127065374</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2454780306729319</v>
+        <v>0.2413192291048687</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3962649493928647</v>
+        <v>0.4036277012825866</v>
       </c>
     </row>
     <row r="13">
@@ -1460,19 +1460,19 @@
         <v>14137</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8460</v>
+        <v>8519</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20407</v>
+        <v>19616</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4218651466483539</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2524740883942133</v>
+        <v>0.2542107871934629</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.608983263705426</v>
+        <v>0.5853843865834577</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -1481,19 +1481,19 @@
         <v>7748</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3845</v>
+        <v>3835</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11258</v>
+        <v>11753</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5275705626308027</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.261815089997557</v>
+        <v>0.261105583722919</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7665572732569749</v>
+        <v>0.8003078159156776</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>22</v>
@@ -1502,19 +1502,19 @@
         <v>21884</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15249</v>
+        <v>14695</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>29155</v>
+        <v>28992</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4540747931980653</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3164099312285342</v>
+        <v>0.304913449920359</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.604943107636853</v>
+        <v>0.6015582189162676</v>
       </c>
     </row>
     <row r="15">
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3938</v>
+        <v>4708</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02842224466247975</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1175179071937272</v>
+        <v>0.1405032369207539</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4205</v>
+        <v>4225</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06713138204024131</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2863007603772968</v>
+        <v>0.2876707791355074</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6389</v>
+        <v>5946</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04021736056637004</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.132569064480613</v>
+        <v>0.1233813559236332</v>
       </c>
     </row>
     <row r="16">
@@ -1649,19 +1649,19 @@
         <v>18421</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12495</v>
+        <v>12854</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24046</v>
+        <v>23912</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5497126086891664</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3728626729690995</v>
+        <v>0.3835860988712929</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7175711662390128</v>
+        <v>0.713572609385935</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1670,19 +1670,19 @@
         <v>5952</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2807</v>
+        <v>1961</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10263</v>
+        <v>9535</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4052980553289559</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1911674290886944</v>
+        <v>0.1335518553709836</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.698800739530044</v>
+        <v>0.6492311160799074</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -1691,19 +1691,19 @@
         <v>24373</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17334</v>
+        <v>17671</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>30876</v>
+        <v>31793</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5057078462355646</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3596615917410461</v>
+        <v>0.366656454072578</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6406410602585327</v>
+        <v>0.6596689770054592</v>
       </c>
     </row>
     <row r="18">
@@ -1795,19 +1795,19 @@
         <v>34178</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25869</v>
+        <v>25084</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43531</v>
+        <v>43195</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.486039929479946</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3678860571806998</v>
+        <v>0.3567217080390491</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6190445888025304</v>
+        <v>0.6142666877270069</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -1816,19 +1816,19 @@
         <v>14513</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8819</v>
+        <v>9029</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21098</v>
+        <v>21092</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4409163215724975</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2679291610443871</v>
+        <v>0.2742990637502519</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.640986138635413</v>
+        <v>0.6408150214106531</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>43</v>
@@ -1837,19 +1837,19 @@
         <v>48691</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38106</v>
+        <v>38697</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>59689</v>
+        <v>58996</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4716526990745795</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3691174785466051</v>
+        <v>0.3748430494709489</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.578189406203902</v>
+        <v>0.5714718483021081</v>
       </c>
     </row>
     <row r="20">
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6176</v>
+        <v>6547</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02585396112755167</v>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08782319595840979</v>
+        <v>0.09310757437893673</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1887,19 +1887,19 @@
         <v>3568</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9368</v>
+        <v>10085</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.108385842084388</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02830480637614504</v>
+        <v>0.02834473942678969</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2846023529329291</v>
+        <v>0.306404229268083</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -1908,19 +1908,19 @@
         <v>5386</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1850</v>
+        <v>1794</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12888</v>
+        <v>12049</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05216846127899642</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01792086692835817</v>
+        <v>0.01737619297187298</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1248444688362259</v>
+        <v>0.1167095198817549</v>
       </c>
     </row>
     <row r="21">
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5300</v>
+        <v>5038</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01444613867332491</v>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07537630614431824</v>
+        <v>0.07164877711769554</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4773</v>
+        <v>3946</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02747130479499977</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1450178371296817</v>
+        <v>0.1198737966192158</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2</v>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>6362</v>
+        <v>6668</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01859908819910469</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.06162935988402692</v>
+        <v>0.06458840452339094</v>
       </c>
     </row>
     <row r="22">
@@ -2008,19 +2008,19 @@
         <v>33307</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24518</v>
+        <v>24847</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42362</v>
+        <v>42647</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4736599707191775</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3486622924947539</v>
+        <v>0.3533471196158305</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6024234395900639</v>
+        <v>0.606472907020028</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -2029,19 +2029,19 @@
         <v>13931</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8108</v>
+        <v>8253</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20055</v>
+        <v>19771</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4232265315481147</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2463207909774059</v>
+        <v>0.2507466272992512</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6092931495845387</v>
+        <v>0.60067463861048</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>44</v>
@@ -2050,19 +2050,19 @@
         <v>47238</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>36807</v>
+        <v>36350</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>58992</v>
+        <v>56689</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4575797514473194</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3565369642272226</v>
+        <v>0.3521075764892522</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5714376818756342</v>
+        <v>0.5491288903140169</v>
       </c>
     </row>
     <row r="23">
@@ -2154,19 +2154,19 @@
         <v>30679</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>22662</v>
+        <v>23651</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>36983</v>
+        <v>37009</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5996705700401379</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4429693274688639</v>
+        <v>0.4623012074845725</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7229012431501408</v>
+        <v>0.7234081705695546</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>12</v>
@@ -2175,19 +2175,19 @@
         <v>11999</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7860</v>
+        <v>7936</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14951</v>
+        <v>14946</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7520426124225049</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4926256738243538</v>
+        <v>0.4973764277434279</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9370777141106275</v>
+        <v>0.9367656103225749</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>42</v>
@@ -2196,19 +2196,19 @@
         <v>42678</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>34700</v>
+        <v>34554</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>50627</v>
+        <v>49492</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6358944494388136</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5170248029283668</v>
+        <v>0.5148482057035658</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7543359580997778</v>
+        <v>0.7374253499056376</v>
       </c>
     </row>
     <row r="25">
@@ -2319,19 +2319,19 @@
         <v>20480</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>14176</v>
+        <v>14150</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>28497</v>
+        <v>27508</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.400329429959862</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2770987568498589</v>
+        <v>0.2765918294304454</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.557030672531136</v>
+        <v>0.5376987925154275</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>4</v>
@@ -2340,19 +2340,19 @@
         <v>3956</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>8095</v>
+        <v>8019</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2479573875774951</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.0629222858893726</v>
+        <v>0.06323438967742515</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5073743261756462</v>
+        <v>0.5026235722565721</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>24</v>
@@ -2361,19 +2361,19 @@
         <v>24437</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>16488</v>
+        <v>17623</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>32415</v>
+        <v>32561</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3641055505611864</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2456640419002221</v>
+        <v>0.2625746500943624</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4829751970716332</v>
+        <v>0.4851517942964341</v>
       </c>
     </row>
     <row r="28">
@@ -2465,19 +2465,19 @@
         <v>13958</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7903</v>
+        <v>8489</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>20947</v>
+        <v>21901</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2781132635117349</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1574623282132939</v>
+        <v>0.1691482259139779</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4173700269251487</v>
+        <v>0.436387788898251</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -2486,19 +2486,19 @@
         <v>6710</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3126</v>
+        <v>3223</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9789</v>
+        <v>10605</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5750147931389629</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2678884590376676</v>
+        <v>0.2762431613608417</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.838880971569137</v>
+        <v>0.9088456382593432</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>19</v>
@@ -2507,19 +2507,19 @@
         <v>20668</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>12867</v>
+        <v>13741</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>28305</v>
+        <v>28968</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3341229689986048</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2080175556068646</v>
+        <v>0.2221446941816352</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4576023006486063</v>
+        <v>0.4683095014963255</v>
       </c>
     </row>
     <row r="30">
@@ -2536,19 +2536,19 @@
         <v>6851</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2871</v>
+        <v>2839</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13599</v>
+        <v>14155</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1365086749653949</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05720259979541729</v>
+        <v>0.05656303711320106</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2709591677633552</v>
+        <v>0.2820514220949611</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>4493</v>
+        <v>4168</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.08146088173510453</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3850625374297076</v>
+        <v>0.357177880553784</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>7</v>
@@ -2578,19 +2578,19 @@
         <v>7802</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3062</v>
+        <v>3727</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>15108</v>
+        <v>15927</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.126124051179853</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04950040336011112</v>
+        <v>0.06024893877649429</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2442473717313078</v>
+        <v>0.2574914548992943</v>
       </c>
     </row>
     <row r="31">
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>4436</v>
+        <v>4962</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01931965117135219</v>
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.08838405841561782</v>
+        <v>0.09886107163710461</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4348</v>
+        <v>4218</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0843209287024054</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3726133028686804</v>
+        <v>0.3614777567288653</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>6058</v>
+        <v>6467</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03158197402080209</v>
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09793007101638058</v>
+        <v>0.1045525618362153</v>
       </c>
     </row>
     <row r="32">
@@ -2678,19 +2678,19 @@
         <v>28409</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>20992</v>
+        <v>20784</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>35209</v>
+        <v>35553</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.566058410351518</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4182765052564507</v>
+        <v>0.4141352462358509</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7015530883162763</v>
+        <v>0.7084200162330493</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3</v>
@@ -2699,19 +2699,19 @@
         <v>3025</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6546</v>
+        <v>6469</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2592033964235272</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07887614569313092</v>
+        <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5609541077487388</v>
+        <v>0.5543343865277238</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>31</v>
@@ -2720,19 +2720,19 @@
         <v>31433</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>22730</v>
+        <v>22882</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>39061</v>
+        <v>39114</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.50817100580074</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3674651756268807</v>
+        <v>0.3699203825395345</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6314775230458601</v>
+        <v>0.6323425429777332</v>
       </c>
     </row>
     <row r="33">
@@ -2824,19 +2824,19 @@
         <v>49851</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>39821</v>
+        <v>40170</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>59453</v>
+        <v>59974</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5139118321714261</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4105095126450761</v>
+        <v>0.4141067403420673</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6129014924160497</v>
+        <v>0.6182651286937155</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>24</v>
@@ -2845,19 +2845,19 @@
         <v>26380</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>18879</v>
+        <v>18967</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>33318</v>
+        <v>32946</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5664720324529785</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4054026738866344</v>
+        <v>0.4072815300706009</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7154492117566872</v>
+        <v>0.7074663711906981</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>69</v>
@@ -2866,19 +2866,19 @@
         <v>76231</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>65160</v>
+        <v>63675</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>89055</v>
+        <v>88593</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5309602812666858</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4538480086597889</v>
+        <v>0.4435089620175548</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6202828844885162</v>
+        <v>0.6170611506197899</v>
       </c>
     </row>
     <row r="35">
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>4621</v>
+        <v>5020</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.009417645237176437</v>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.0476337695192058</v>
+        <v>0.05175024670946964</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>4760</v>
+        <v>6162</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02437427177048065</v>
@@ -2928,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.102220820691727</v>
+        <v>0.1323126618540195</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2</v>
@@ -2940,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>7544</v>
+        <v>7201</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01426898303124767</v>
@@ -2949,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05254810928700596</v>
+        <v>0.05015393863301426</v>
       </c>
     </row>
     <row r="36">
@@ -2966,19 +2966,19 @@
         <v>4944</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1717</v>
+        <v>1048</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11755</v>
+        <v>12563</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.05097046614254504</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01770442038012859</v>
+        <v>0.01080603347832061</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.121186772532024</v>
+        <v>0.1295079999405646</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2</v>
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>6626</v>
+        <v>7449</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0457595088795901</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1422798063456503</v>
+        <v>0.1599494093155171</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>6</v>
@@ -3008,19 +3008,19 @@
         <v>7075</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2732</v>
+        <v>2767</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>15103</v>
+        <v>14656</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.04928023781085731</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01902937760396264</v>
+        <v>0.01927113538400091</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1051912742468614</v>
+        <v>0.1020785851291799</v>
       </c>
     </row>
     <row r="37">
@@ -3037,19 +3037,19 @@
         <v>41294</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>31669</v>
+        <v>32297</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>51146</v>
+        <v>51981</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4257000564488524</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3264711875030621</v>
+        <v>0.3329465810138805</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5272664424446477</v>
+        <v>0.535871504406748</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>15</v>
@@ -3058,19 +3058,19 @@
         <v>16923</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>10452</v>
+        <v>10286</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>23963</v>
+        <v>23825</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3633941868969508</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2244397952805946</v>
+        <v>0.2208857730461995</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5145693876427905</v>
+        <v>0.511614313584422</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>55</v>
@@ -3079,19 +3079,19 @@
         <v>58217</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>45633</v>
+        <v>46528</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>69843</v>
+        <v>70758</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4054904978912092</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3178397515344519</v>
+        <v>0.324072537834892</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4864670432664379</v>
+        <v>0.492840197495248</v>
       </c>
     </row>
     <row r="38">
@@ -3183,19 +3183,19 @@
         <v>70803</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>59886</v>
+        <v>58346</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>82855</v>
+        <v>82176</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.5536976697658371</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4683263065636852</v>
+        <v>0.4562796673901451</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6479486963458163</v>
+        <v>0.6426337628740226</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>31</v>
@@ -3204,19 +3204,19 @@
         <v>31862</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>24549</v>
+        <v>25144</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>37287</v>
+        <v>37860</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.7065170858618112</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.5443489128223015</v>
+        <v>0.5575571684549347</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.8268070975723674</v>
+        <v>0.83952346877716</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>95</v>
@@ -3225,19 +3225,19 @@
         <v>102665</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>88920</v>
+        <v>89197</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>116004</v>
+        <v>115770</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.5935407377847992</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.5140784724724383</v>
+        <v>0.5156766432862986</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.6706582701724959</v>
+        <v>0.6693091469973989</v>
       </c>
     </row>
     <row r="40">
@@ -3254,19 +3254,19 @@
         <v>5142</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1093</v>
+        <v>1081</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>12361</v>
+        <v>13276</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.04021419880923232</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.008545128475173681</v>
+        <v>0.008452928389202032</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.09666819137035652</v>
+        <v>0.1038252128356919</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>6529</v>
+        <v>7245</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.04707178126753368</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1447814861091319</v>
+        <v>0.1606494982385877</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>6</v>
@@ -3296,19 +3296,19 @@
         <v>7265</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2134</v>
+        <v>3079</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>15296</v>
+        <v>15584</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.04200210725249028</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01233949425607375</v>
+        <v>0.0178009777180203</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.08843237649538632</v>
+        <v>0.09009605356846022</v>
       </c>
     </row>
     <row r="41">
@@ -3325,19 +3325,19 @@
         <v>8725</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>4097</v>
+        <v>3399</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>17964</v>
+        <v>18356</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.06823230881655684</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.03204148907222117</v>
+        <v>0.02657909297287978</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1404794457387646</v>
+        <v>0.1435463416775448</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>9916</v>
+        <v>10249</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.04248900256978447</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2198783243450616</v>
+        <v>0.2272559522800009</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>8</v>
@@ -3367,19 +3367,19 @@
         <v>10641</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>5013</v>
+        <v>4818</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>20824</v>
+        <v>20754</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.06152051572097947</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02898447699518694</v>
+        <v>0.02785588775945966</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1203937051615423</v>
+        <v>0.1199873833661777</v>
       </c>
     </row>
     <row r="42">
@@ -3396,19 +3396,19 @@
         <v>43203</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>32844</v>
+        <v>32738</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>53769</v>
+        <v>55847</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3378558226083737</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2568479934042986</v>
+        <v>0.2560218894486763</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.420486600678953</v>
+        <v>0.4367355986570182</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>9</v>
@@ -3417,19 +3417,19 @@
         <v>9196</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>4128</v>
+        <v>4221</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>14789</v>
+        <v>14776</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2039221303008707</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.09152943401255265</v>
+        <v>0.09360082381656047</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3279342481371365</v>
+        <v>0.3276511855736555</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>49</v>
@@ -3438,19 +3438,19 @@
         <v>52399</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>40766</v>
+        <v>40780</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>66640</v>
+        <v>63757</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.302936639241731</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.235685048579979</v>
+        <v>0.235762088776278</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3852693755978341</v>
+        <v>0.3685996064321609</v>
       </c>
     </row>
     <row r="43">
@@ -3542,19 +3542,19 @@
         <v>334849</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>309779</v>
+        <v>309667</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>360296</v>
+        <v>358914</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.5389987402689004</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.49864486570002</v>
+        <v>0.4984650366598358</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.5799606337248397</v>
+        <v>0.5777364856372512</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>139</v>
@@ -3563,19 +3563,19 @@
         <v>147502</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>131007</v>
+        <v>132774</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>162909</v>
+        <v>162079</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.6160081572795739</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.5471215537921429</v>
+        <v>0.5544983702280735</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.6803535270254156</v>
+        <v>0.6768872273315808</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>454</v>
@@ -3584,19 +3584,19 @@
         <v>482351</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>451259</v>
+        <v>452711</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>512802</v>
+        <v>511373</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.5604231473010965</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.5242979615841799</v>
+        <v>0.525985403143086</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.5958030041442881</v>
+        <v>0.5941427081685402</v>
       </c>
     </row>
     <row r="45">
@@ -3613,19 +3613,19 @@
         <v>26254</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>17963</v>
+        <v>17772</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>37814</v>
+        <v>37682</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.04226061934525725</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.02891521528658426</v>
+        <v>0.0286068113025901</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.06086841671900531</v>
+        <v>0.06065650200050201</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>10</v>
@@ -3634,19 +3634,19 @@
         <v>11037</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>5799</v>
+        <v>5202</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>20144</v>
+        <v>19469</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.04609384115404721</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.02421777416034232</v>
+        <v>0.02172376387047794</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.08412658253820431</v>
+        <v>0.08130927052199108</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>35</v>
@@ -3655,19 +3655,19 @@
         <v>37291</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>26308</v>
+        <v>26746</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>51456</v>
+        <v>51665</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.04332704092672209</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.03056559075419722</v>
+        <v>0.03107466336338391</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.05978490256039626</v>
+        <v>0.06002751126977163</v>
       </c>
     </row>
     <row r="46">
@@ -3684,19 +3684,19 @@
         <v>20160</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>11535</v>
+        <v>11442</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>32582</v>
+        <v>31883</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.0324503496868912</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01856707597709742</v>
+        <v>0.01841757559238243</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.05244693750182187</v>
+        <v>0.05132074837356523</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>7</v>
@@ -3705,19 +3705,19 @@
         <v>8103</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>3158</v>
+        <v>3310</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>16090</v>
+        <v>17908</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.03383913727159632</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01318947329874973</v>
+        <v>0.01382541670051328</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.06719684385945043</v>
+        <v>0.07478668681639276</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>24</v>
@@ -3726,19 +3726,19 @@
         <v>28262</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>18867</v>
+        <v>18884</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>42749</v>
+        <v>41115</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.03283671737607731</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02192081015335356</v>
+        <v>0.02194035695895628</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.04966818653378158</v>
+        <v>0.04777004430397418</v>
       </c>
     </row>
     <row r="47">
@@ -3755,19 +3755,19 @@
         <v>239980</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>216315</v>
+        <v>215926</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>266641</v>
+        <v>264201</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3862902906989512</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.3481972513352671</v>
+        <v>0.3475719181476313</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.4292062309127597</v>
+        <v>0.425279440844137</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>69</v>
@@ -3776,19 +3776,19 @@
         <v>72806</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>58345</v>
+        <v>59585</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>87628</v>
+        <v>86835</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.3040588642947826</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2436631559866707</v>
+        <v>0.2488413576107985</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.365957505401326</v>
+        <v>0.3626446060123799</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>294</v>
@@ -3797,19 +3797,19 @@
         <v>312786</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>284504</v>
+        <v>285230</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>342291</v>
+        <v>345792</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.363413094396104</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.3305526520037028</v>
+        <v>0.3313960724124402</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3976933223843831</v>
+        <v>0.4017604594278655</v>
       </c>
     </row>
     <row r="48">
@@ -4145,19 +4145,19 @@
         <v>33325</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23734</v>
+        <v>23663</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43516</v>
+        <v>43013</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3599312207345026</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2563409949212493</v>
+        <v>0.2555833409553641</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.470008583801692</v>
+        <v>0.4645774268384262</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -4166,19 +4166,19 @@
         <v>14377</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8748</v>
+        <v>8297</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20392</v>
+        <v>20250</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4430268642137493</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2695633137255024</v>
+        <v>0.255665321871463</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6283964290659403</v>
+        <v>0.6240223871924444</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -4187,19 +4187,19 @@
         <v>47701</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36583</v>
+        <v>35704</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>59850</v>
+        <v>59443</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.381497003390197</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2925790591692815</v>
+        <v>0.2855454123402114</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4786575207773402</v>
+        <v>0.4754069062187273</v>
       </c>
     </row>
     <row r="5">
@@ -4216,19 +4216,19 @@
         <v>9848</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4817</v>
+        <v>4947</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17225</v>
+        <v>17908</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.106370337680951</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05202804491000775</v>
+        <v>0.05343594081821593</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1860418506921502</v>
+        <v>0.1934245052941803</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7111</v>
+        <v>6310</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0605703952148848</v>
@@ -4249,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.219128066622588</v>
+        <v>0.1944417281971198</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -4258,19 +4258,19 @@
         <v>11814</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6210</v>
+        <v>5842</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22273</v>
+        <v>20991</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09448389498058037</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04966349015006005</v>
+        <v>0.04672571050305914</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1781297340882773</v>
+        <v>0.1678791840408315</v>
       </c>
     </row>
     <row r="6">
@@ -4287,19 +4287,19 @@
         <v>5167</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2051</v>
+        <v>1980</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11619</v>
+        <v>11532</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05580525343704476</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02215219936222415</v>
+        <v>0.02138760618280815</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.12549375676824</v>
+        <v>0.1245499347601751</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4336</v>
+        <v>5210</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03076593556990878</v>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1336162428579907</v>
+        <v>0.1605548824451266</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -4329,19 +4329,19 @@
         <v>6165</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2103</v>
+        <v>2930</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>12554</v>
+        <v>12921</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04930680821946407</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0168229815365812</v>
+        <v>0.02343192647623364</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1003994946872566</v>
+        <v>0.1033334358399667</v>
       </c>
     </row>
     <row r="7">
@@ -4358,19 +4358,19 @@
         <v>44246</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33911</v>
+        <v>34920</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53643</v>
+        <v>54519</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4778931881475016</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3662702115545445</v>
+        <v>0.3771578827501911</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5793822424677159</v>
+        <v>0.5888459339918015</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -4379,19 +4379,19 @@
         <v>15110</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9136</v>
+        <v>9430</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20889</v>
+        <v>20747</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4656368050014571</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2815290852368132</v>
+        <v>0.2905777647180458</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6437184858568618</v>
+        <v>0.6393342802438349</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>53</v>
@@ -4400,19 +4400,19 @@
         <v>59357</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>47492</v>
+        <v>48044</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>71502</v>
+        <v>71821</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4747122934097585</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3798240636399032</v>
+        <v>0.3842345481723392</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5718475536610216</v>
+        <v>0.5743996619433854</v>
       </c>
     </row>
     <row r="8">
@@ -4504,19 +4504,19 @@
         <v>27892</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>20532</v>
+        <v>20584</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>36300</v>
+        <v>36451</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4549606106003438</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3348968907384946</v>
+        <v>0.3357549726840793</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5920997946691333</v>
+        <v>0.5945658101723267</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -4525,19 +4525,19 @@
         <v>10773</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5922</v>
+        <v>5824</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15739</v>
+        <v>16031</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4101985202525599</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2254946536451192</v>
+        <v>0.2217785032063859</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5993236885378859</v>
+        <v>0.6104213211802485</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>37</v>
@@ -4546,19 +4546,19 @@
         <v>38665</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>29633</v>
+        <v>28997</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>48219</v>
+        <v>48073</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4415366603187532</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3383942852376317</v>
+        <v>0.3311342262652623</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5506354791142137</v>
+        <v>0.5489785100850144</v>
       </c>
     </row>
     <row r="10">
@@ -4578,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5746</v>
+        <v>5653</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01719779244760641</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09373036498158162</v>
+        <v>0.09220788874413605</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -4599,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6163</v>
+        <v>6256</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07617532574615962</v>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2346716846495663</v>
+        <v>0.2381961140445517</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -4617,19 +4617,19 @@
         <v>3055</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>981</v>
+        <v>989</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8099</v>
+        <v>8154</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03488489035968655</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01120229313029667</v>
+        <v>0.0112893955069678</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09248577789898176</v>
+        <v>0.09311268436873404</v>
       </c>
     </row>
     <row r="11">
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7146</v>
+        <v>6134</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03316025243474985</v>
@@ -4658,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1165657381986948</v>
+        <v>0.1000581080655819</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6995</v>
+        <v>5743</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05733315085820966</v>
@@ -4679,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2663466996603526</v>
+        <v>0.2186639946731732</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -4688,19 +4688,19 @@
         <v>3539</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9729</v>
+        <v>9691</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04040959633440375</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01148174062978489</v>
+        <v>0.01148958083174521</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1111053073751069</v>
+        <v>0.1106698781188013</v>
       </c>
     </row>
     <row r="12">
@@ -4717,19 +4717,19 @@
         <v>30327</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21934</v>
+        <v>22067</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>38048</v>
+        <v>38300</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4946813445172999</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3577672112983926</v>
+        <v>0.3599376944478841</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6206166564520159</v>
+        <v>0.6247257138027125</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -4738,19 +4738,19 @@
         <v>11983</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7181</v>
+        <v>6999</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17009</v>
+        <v>17087</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4562930031430709</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2734451312174744</v>
+        <v>0.2665230787082212</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6476532275835096</v>
+        <v>0.6506303503332963</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>40</v>
@@ -4759,19 +4759,19 @@
         <v>42311</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>32514</v>
+        <v>32993</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>52262</v>
+        <v>52801</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4831688529871564</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3712971058089237</v>
+        <v>0.3767699529955874</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5968144492528411</v>
+        <v>0.6029683425570017</v>
       </c>
     </row>
     <row r="13">
@@ -4863,19 +4863,19 @@
         <v>16986</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11303</v>
+        <v>10962</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24144</v>
+        <v>24241</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3307061261387693</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2200562837038815</v>
+        <v>0.2134320007910353</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4700804997046883</v>
+        <v>0.4719619997819614</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -4884,19 +4884,19 @@
         <v>8076</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4139</v>
+        <v>4163</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12319</v>
+        <v>12295</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3998609375690904</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2049273093815269</v>
+        <v>0.2061535099596903</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6099967830094151</v>
+        <v>0.608762205333169</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>27</v>
@@ -4905,19 +4905,19 @@
         <v>25061</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>17700</v>
+        <v>17753</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>33262</v>
+        <v>32838</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3502234938142196</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2473450751710769</v>
+        <v>0.2480940276140334</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4648269946477264</v>
+        <v>0.4588980375482961</v>
       </c>
     </row>
     <row r="15">
@@ -4937,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7307</v>
+        <v>6562</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0399683107320763</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1422612416425054</v>
+        <v>0.1277625485096878</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7536</v>
+        <v>6766</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1188396419162351</v>
@@ -4967,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3731203006332107</v>
+        <v>0.3350292814069784</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>4</v>
@@ -4976,19 +4976,19 @@
         <v>4453</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>920</v>
+        <v>1207</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>10103</v>
+        <v>9985</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.06222794441388408</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01284998614500179</v>
+        <v>0.01686273167753851</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1411892071275095</v>
+        <v>0.1395404458344834</v>
       </c>
     </row>
     <row r="16">
@@ -5008,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7454</v>
+        <v>6142</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03054388844644161</v>
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1451322124784908</v>
+        <v>0.119591495790573</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9121</v>
+        <v>8151</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02192357282823194</v>
@@ -5051,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1274696171476556</v>
+        <v>0.1139082280528218</v>
       </c>
     </row>
     <row r="17">
@@ -5068,19 +5068,19 @@
         <v>30755</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>23467</v>
+        <v>24156</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37174</v>
+        <v>37458</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5987816746827128</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4568921617155499</v>
+        <v>0.4703109576785257</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7237719031267803</v>
+        <v>0.7292901305937113</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -5089,19 +5089,19 @@
         <v>9720</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5312</v>
+        <v>5736</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13831</v>
+        <v>14053</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4812994205146746</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2630051404145655</v>
+        <v>0.28402379469287</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6848386590767728</v>
+        <v>0.6958156659665685</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>43</v>
@@ -5110,19 +5110,19 @@
         <v>40475</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>32445</v>
+        <v>32299</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>48883</v>
+        <v>47977</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5656249889436643</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4534092394431165</v>
+        <v>0.4513663339422597</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6831172570030258</v>
+        <v>0.6704615633803737</v>
       </c>
     </row>
     <row r="18">
@@ -5214,19 +5214,19 @@
         <v>45953</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>36750</v>
+        <v>36272</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>56482</v>
+        <v>55090</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4967949540096135</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3973064494061291</v>
+        <v>0.392136117789993</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6106180809709394</v>
+        <v>0.5955739723446222</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -5235,19 +5235,19 @@
         <v>23897</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17590</v>
+        <v>17713</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29020</v>
+        <v>29061</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6769903177741845</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.498323729054639</v>
+        <v>0.5018095222267589</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8221057605388149</v>
+        <v>0.8232698148075083</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>64</v>
@@ -5256,19 +5256,19 @@
         <v>69850</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>57273</v>
+        <v>58527</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>80524</v>
+        <v>81395</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5465669116504435</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4481550147259493</v>
+        <v>0.4579643653949458</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.630088008674889</v>
+        <v>0.6368997512315482</v>
       </c>
     </row>
     <row r="20">
@@ -5285,19 +5285,19 @@
         <v>2897</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7768</v>
+        <v>8446</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03132179771584376</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.009980512265202943</v>
+        <v>0.01002729041094718</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08397942942663311</v>
+        <v>0.09130388814337917</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -5319,19 +5319,19 @@
         <v>2897</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7890</v>
+        <v>8569</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02267036986232576</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.007290359859262277</v>
+        <v>0.007301177590860909</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06173905506881439</v>
+        <v>0.06705466203812023</v>
       </c>
     </row>
     <row r="21">
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7180</v>
+        <v>6149</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02172576965347355</v>
@@ -5360,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07761956907759553</v>
+        <v>0.06648027522477216</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -5385,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>7472</v>
+        <v>6156</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01572487116021432</v>
@@ -5394,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05847027346889701</v>
+        <v>0.04816861951747303</v>
       </c>
     </row>
     <row r="22">
@@ -5411,19 +5411,19 @@
         <v>41639</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32538</v>
+        <v>32765</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>51357</v>
+        <v>51707</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4501574786210691</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3517661520070086</v>
+        <v>0.3542157942118404</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.555211501511196</v>
+        <v>0.559000900989615</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -5432,19 +5432,19 @@
         <v>11402</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6279</v>
+        <v>6238</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17709</v>
+        <v>17586</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3230096822258156</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1778942394611852</v>
+        <v>0.1767301851924918</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5016762709453614</v>
+        <v>0.498190477773241</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>51</v>
@@ -5453,19 +5453,19 @@
         <v>53041</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>42389</v>
+        <v>42064</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>65362</v>
+        <v>64583</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4150378473270165</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3316903243443078</v>
+        <v>0.3291461853467881</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5114463666936062</v>
+        <v>0.5053543084244947</v>
       </c>
     </row>
     <row r="23">
@@ -5557,19 +5557,19 @@
         <v>15935</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10191</v>
+        <v>9186</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>23340</v>
+        <v>23052</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3327737841164747</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2128205574131312</v>
+        <v>0.1918328950199437</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4874335564832994</v>
+        <v>0.4814215000956231</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>9</v>
@@ -5578,19 +5578,19 @@
         <v>8904</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5212</v>
+        <v>4902</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12722</v>
+        <v>12564</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5504008198428372</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3221872788315369</v>
+        <v>0.3030149282427674</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.786432929902006</v>
+        <v>0.7766701968763772</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>25</v>
@@ -5599,19 +5599,19 @@
         <v>24838</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>17415</v>
+        <v>17574</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>32181</v>
+        <v>32915</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3877294823055737</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2718507823391416</v>
+        <v>0.2743397701878453</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5023419269706326</v>
+        <v>0.5138148266528862</v>
       </c>
     </row>
     <row r="25">
@@ -5628,19 +5628,19 @@
         <v>6329</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2051</v>
+        <v>2606</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12225</v>
+        <v>13143</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1321659894152251</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04283147495546873</v>
+        <v>0.0544267405726697</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2552964263020701</v>
+        <v>0.2744778972231851</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5973</v>
+        <v>5946</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1198381043114454</v>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3692070091900248</v>
+        <v>0.3675362914801561</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -5670,19 +5670,19 @@
         <v>8267</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3911</v>
+        <v>3899</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>14851</v>
+        <v>15032</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1290529224618846</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0610516415405261</v>
+        <v>0.06086606846121158</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2318241129429827</v>
+        <v>0.2346527451756503</v>
       </c>
     </row>
     <row r="26">
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6500</v>
+        <v>7344</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04308983845731343</v>
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1357375637925274</v>
+        <v>0.153380695647481</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -5736,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6382</v>
+        <v>6649</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03220868966358249</v>
@@ -5745,7 +5745,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09961964155724019</v>
+        <v>0.1037916095947522</v>
       </c>
     </row>
     <row r="27">
@@ -5762,19 +5762,19 @@
         <v>23558</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>16287</v>
+        <v>16362</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>30749</v>
+        <v>30835</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.4919703880109867</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3401375001165407</v>
+        <v>0.341702083278444</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6421583333526967</v>
+        <v>0.6439614961495191</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>6</v>
@@ -5783,19 +5783,19 @@
         <v>5335</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1756</v>
+        <v>2465</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>9140</v>
+        <v>9337</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3297610758457174</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1085256887043887</v>
+        <v>0.1523998559060947</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5649692083119079</v>
+        <v>0.5771817109275766</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>29</v>
@@ -5804,19 +5804,19 @@
         <v>28892</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>21278</v>
+        <v>20415</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>36516</v>
+        <v>36767</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4510089055689592</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3321490574605012</v>
+        <v>0.31868516400391</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5700233036096299</v>
+        <v>0.5739325699178853</v>
       </c>
     </row>
     <row r="28">
@@ -5908,19 +5908,19 @@
         <v>20770</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>13740</v>
+        <v>14188</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>28157</v>
+        <v>28103</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4233054154000601</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2800349753744892</v>
+        <v>0.2891675593077522</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5738535161159691</v>
+        <v>0.5727528771731143</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>9</v>
@@ -5929,19 +5929,19 @@
         <v>8615</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4768</v>
+        <v>4856</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11552</v>
+        <v>11535</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6389285713396506</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3536488316603625</v>
+        <v>0.3601786343826407</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8567710234992379</v>
+        <v>0.8555200671853544</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>29</v>
@@ -5950,19 +5950,19 @@
         <v>29385</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>22057</v>
+        <v>21600</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>36973</v>
+        <v>37449</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4697846689405264</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3526366722733781</v>
+        <v>0.3453228533480924</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5910971080451266</v>
+        <v>0.5987202687479373</v>
       </c>
     </row>
     <row r="30">
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5201</v>
+        <v>4792</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02051985125193751</v>
@@ -5991,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1060014786571138</v>
+        <v>0.0976713972711112</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5094</v>
+        <v>5969</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01609663722005189</v>
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08143833285067308</v>
+        <v>0.09542761132919213</v>
       </c>
     </row>
     <row r="31">
@@ -6045,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5300</v>
+        <v>4815</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02004441172404571</v>
@@ -6054,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1080177427877622</v>
+        <v>0.09813741091206125</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -6079,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4548</v>
+        <v>4901</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01572368239174511</v>
@@ -6088,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0727071308415775</v>
+        <v>0.07834766149113573</v>
       </c>
     </row>
     <row r="32">
@@ -6105,19 +6105,19 @@
         <v>26306</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>19314</v>
+        <v>19515</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>33708</v>
+        <v>33236</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5361303216239567</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3936337470041189</v>
+        <v>0.3977271178876583</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6869993292333988</v>
+        <v>0.6773758246671465</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -6126,19 +6126,19 @@
         <v>4868</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1931</v>
+        <v>1948</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>8715</v>
+        <v>8627</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3610714286603493</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1432289765007621</v>
+        <v>0.1444799328146456</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6463511683396376</v>
+        <v>0.6398213656173594</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>30</v>
@@ -6147,19 +6147,19 @@
         <v>31174</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>23629</v>
+        <v>23099</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>38797</v>
+        <v>38909</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4983950114476766</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3777615765917742</v>
+        <v>0.3692964231604482</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.620272496694756</v>
+        <v>0.6220629407350714</v>
       </c>
     </row>
     <row r="33">
@@ -6251,19 +6251,19 @@
         <v>52065</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>40193</v>
+        <v>40948</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>66844</v>
+        <v>67094</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2524350773774927</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1948759509121279</v>
+        <v>0.1985369078700199</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3240909935212818</v>
+        <v>0.3253065173851263</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>33</v>
@@ -6272,19 +6272,19 @@
         <v>32831</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>24689</v>
+        <v>24280</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>43043</v>
+        <v>43039</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3166462086974627</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.238119193163693</v>
+        <v>0.2341706668269466</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4151326787688943</v>
+        <v>0.4150932040527223</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>78</v>
@@ -6293,19 +6293,19 @@
         <v>84896</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>68852</v>
+        <v>67878</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>102342</v>
+        <v>101023</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2739159527217706</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2221517296252806</v>
+        <v>0.2190087584915827</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.330204232950751</v>
+        <v>0.3259505889972855</v>
       </c>
     </row>
     <row r="35">
@@ -6322,19 +6322,19 @@
         <v>12857</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>6485</v>
+        <v>6527</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>21553</v>
+        <v>22189</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0623380257264993</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0314438979722511</v>
+        <v>0.0316473180295783</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1044987771092888</v>
+        <v>0.1075821815175819</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>9</v>
@@ -6343,19 +6343,19 @@
         <v>11063</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>5188</v>
+        <v>5463</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>20190</v>
+        <v>19860</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1066973273335535</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05003752172983329</v>
+        <v>0.05268954679046884</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1947310922413082</v>
+        <v>0.1915404945893956</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>21</v>
@@ -6364,19 +6364,19 @@
         <v>23920</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>14802</v>
+        <v>15366</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>35867</v>
+        <v>35854</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.07717776781782122</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04775918997238442</v>
+        <v>0.04957755195517725</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1157230938318101</v>
+        <v>0.1156840947767823</v>
       </c>
     </row>
     <row r="36">
@@ -6393,19 +6393,19 @@
         <v>11614</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5710</v>
+        <v>5946</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>21237</v>
+        <v>21498</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.05631042608811197</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02768617803622633</v>
+        <v>0.02882687741330164</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1029696030787311</v>
+        <v>0.1042341118617577</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4</v>
@@ -6414,19 +6414,19 @@
         <v>3731</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>8615</v>
+        <v>8594</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03598024513332954</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.009001849584709424</v>
+        <v>0.008943227293052381</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.08309060260016965</v>
+        <v>0.08288850365112155</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>13</v>
@@ -6435,19 +6435,19 @@
         <v>15345</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>8241</v>
+        <v>9097</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>27124</v>
+        <v>26775</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.04950926756872492</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02659082962753039</v>
+        <v>0.02935162424138569</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.08751544821185075</v>
+        <v>0.08638927720303434</v>
       </c>
     </row>
     <row r="37">
@@ -6464,19 +6464,19 @@
         <v>129714</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>113679</v>
+        <v>112656</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>143517</v>
+        <v>143013</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.628916470807896</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5511723886536555</v>
+        <v>0.5462113001579133</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.695840890362769</v>
+        <v>0.6933969868984762</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>56</v>
@@ -6485,19 +6485,19 @@
         <v>56059</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>45342</v>
+        <v>46037</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>65568</v>
+        <v>65772</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5406762188356543</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4373129037334395</v>
+        <v>0.4440154258919671</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6323865308073361</v>
+        <v>0.6343468489017655</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>168</v>
@@ -6506,19 +6506,19 @@
         <v>185774</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>166823</v>
+        <v>168458</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>203234</v>
+        <v>203217</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.5993970118916833</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5382530256026901</v>
+        <v>0.5435274480582957</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6557345048083915</v>
+        <v>0.6556786670273768</v>
       </c>
     </row>
     <row r="38">
@@ -6610,19 +6610,19 @@
         <v>74532</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>63027</v>
+        <v>61775</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>85458</v>
+        <v>85987</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.5344742453022988</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.45196623688962</v>
+        <v>0.4429908006044194</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6128211159877769</v>
+        <v>0.6166140284628636</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>48</v>
@@ -6631,19 +6631,19 @@
         <v>51132</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>43215</v>
+        <v>41634</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>59307</v>
+        <v>59490</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.6501484737605012</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.5494819215423288</v>
+        <v>0.5293807935686606</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.7540962442110878</v>
+        <v>0.7564248255446713</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>120</v>
@@ -6652,19 +6652,19 @@
         <v>125665</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>111623</v>
+        <v>110357</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>139904</v>
+        <v>140495</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.576186667719253</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.5118040036671556</v>
+        <v>0.505999647477369</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.6414768662442231</v>
+        <v>0.6441863257440621</v>
       </c>
     </row>
     <row r="40">
@@ -6681,19 +6681,19 @@
         <v>7559</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>3091</v>
+        <v>3559</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>15047</v>
+        <v>15224</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.05420361014823011</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.02216919739276096</v>
+        <v>0.02552062899396555</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1078989006059889</v>
+        <v>0.1091751900973845</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2</v>
@@ -6705,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>6392</v>
+        <v>6247</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.02595350967128664</v>
@@ -6714,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.08127595754478664</v>
+        <v>0.07943261880652661</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>9</v>
@@ -6723,19 +6723,19 @@
         <v>9600</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>4480</v>
+        <v>4964</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>17989</v>
+        <v>18021</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.04401655171592374</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02054350008782392</v>
+        <v>0.02276004626291265</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.08248214976120269</v>
+        <v>0.082629558758089</v>
       </c>
     </row>
     <row r="41">
@@ -6752,19 +6752,19 @@
         <v>3021</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>7878</v>
+        <v>8899</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02166347679187013</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.005630286798373316</v>
+        <v>0.005650053741045176</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.05649575844366355</v>
+        <v>0.06381232722109322</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>4</v>
@@ -6773,19 +6773,19 @@
         <v>4796</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>11405</v>
+        <v>12162</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.06097922816746677</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01408052832118682</v>
+        <v>0.01405302305854598</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1450191694514603</v>
+        <v>0.1546452115935456</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>7</v>
@@ -6794,19 +6794,19 @@
         <v>7817</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>3189</v>
+        <v>3895</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>16483</v>
+        <v>16606</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.03584083721931758</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01462033550998312</v>
+        <v>0.01785939947078988</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.07557804436936322</v>
+        <v>0.07614170785151993</v>
       </c>
     </row>
     <row r="42">
@@ -6823,19 +6823,19 @@
         <v>54338</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>43479</v>
+        <v>42674</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>66216</v>
+        <v>66388</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3896586677576009</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3117891363319711</v>
+        <v>0.3060129264522339</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4748399739119193</v>
+        <v>0.4760734305233826</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>20</v>
@@ -6844,19 +6844,19 @@
         <v>20678</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>13483</v>
+        <v>13217</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>29031</v>
+        <v>30105</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2629187884007453</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1714381391723036</v>
+        <v>0.1680620042366992</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3691407712631908</v>
+        <v>0.382791958162872</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>70</v>
@@ -6865,19 +6865,19 @@
         <v>75016</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>59824</v>
+        <v>59900</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>88673</v>
+        <v>89576</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3439559433455057</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2742984300101275</v>
+        <v>0.2746476085843244</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4065770247741158</v>
+        <v>0.4107147089504105</v>
       </c>
     </row>
     <row r="43">
@@ -6969,19 +6969,19 @@
         <v>287458</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>260096</v>
+        <v>260468</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>316064</v>
+        <v>312718</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.3882437483254648</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3512883532184011</v>
+        <v>0.3517907694801852</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4268794025707255</v>
+        <v>0.4223606411928029</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>153</v>
@@ -6990,19 +6990,19 @@
         <v>158603</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>141349</v>
+        <v>140190</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>176197</v>
+        <v>178559</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.4862180647088286</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.4333236699944122</v>
+        <v>0.4297723898807476</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.5401554710482545</v>
+        <v>0.5473948882497329</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>422</v>
@@ -7011,19 +7011,19 @@
         <v>446060</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>414190</v>
+        <v>411936</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>480757</v>
+        <v>477933</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.4182070405221606</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3883271512363702</v>
+        <v>0.3862139907270622</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.4507374717217648</v>
+        <v>0.4480897035364947</v>
       </c>
     </row>
     <row r="45">
@@ -7040,19 +7040,19 @@
         <v>43604</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>31536</v>
+        <v>31194</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>58003</v>
+        <v>59650</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.05889248507713864</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.04259262056404222</v>
+        <v>0.04213033926759582</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.0783397152452238</v>
+        <v>0.08056338056904203</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>19</v>
@@ -7061,19 +7061,19 @@
         <v>21409</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>12987</v>
+        <v>12846</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>33318</v>
+        <v>32814</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.06563095743054782</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.03981391350094324</v>
+        <v>0.0393821161069316</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1021413714776865</v>
+        <v>0.1005958821113596</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>60</v>
@@ -7082,19 +7082,19 @@
         <v>65013</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>49965</v>
+        <v>50308</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>83049</v>
+        <v>83047</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.060953298804019</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.046845289760631</v>
+        <v>0.04716670180217573</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.07786330256943798</v>
+        <v>0.07786156979127416</v>
       </c>
     </row>
     <row r="46">
@@ -7111,19 +7111,19 @@
         <v>28460</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>18627</v>
+        <v>18216</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>43366</v>
+        <v>41518</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.03843842139620918</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.02515756496911708</v>
+        <v>0.02460310861328007</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.05857090625103047</v>
+        <v>0.05607461041802443</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>10</v>
@@ -7132,19 +7132,19 @@
         <v>11030</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>5739</v>
+        <v>5183</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>20578</v>
+        <v>19368</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.03381513124067489</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.0175932356110878</v>
+        <v>0.01588924227452046</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.06308456025655125</v>
+        <v>0.05937449223397116</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>35</v>
@@ -7153,19 +7153,19 @@
         <v>39490</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>28646</v>
+        <v>27215</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>55325</v>
+        <v>53849</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.0370244896745697</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02685689094596799</v>
+        <v>0.02551520388406582</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.05187073183331233</v>
+        <v>0.05048660504968965</v>
       </c>
     </row>
     <row r="47">
@@ -7182,19 +7182,19 @@
         <v>380883</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>351173</v>
+        <v>353074</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>409264</v>
+        <v>407769</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.5144253452011873</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.4742989380993671</v>
+        <v>0.4768666649702723</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.5527567651110818</v>
+        <v>0.5507380064922575</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>134</v>
@@ -7203,19 +7203,19 @@
         <v>135155</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>117838</v>
+        <v>116438</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>153188</v>
+        <v>153358</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.4143358466199487</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.3612478372403058</v>
+        <v>0.3569552485238821</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.4696169256365613</v>
+        <v>0.470137697372178</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>484</v>
@@ -7224,19 +7224,19 @@
         <v>516038</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>483565</v>
+        <v>483479</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>549077</v>
+        <v>550888</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.4838151709992507</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.4533702298158242</v>
+        <v>0.4532898991641534</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.5147916975805983</v>
+        <v>0.5164893485669673</v>
       </c>
     </row>
     <row r="48">
